--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/36_Hakkari_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/36_Hakkari_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C3598A-3EB2-4863-B9C9-7E8109B41914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E3353D-DD6F-4D88-8DCE-B55CF1AF40D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{07E89DE2-7EEE-4296-AF31-AA2DE539B3E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{B0BA8238-97C4-45F5-B422-EE30844AE921}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="136" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{57EF2B29-E73D-48DA-9BBE-B0E62EA790D3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2B5EC078-454C-4F46-A7FB-C3E847AA3495}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{CBB2352A-BCF1-48B0-BBCB-0CE0DADEF768}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{13E5E184-EB53-447E-A372-84DB6A39F283}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2DCE2C9B-F25E-40EC-9C2B-384DACE63842}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{2C4540B0-84F2-4795-AF5F-30F6C049FEB2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{CABB1AE6-7FE8-4477-A4AA-3C86D1065A9C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2F6E320C-D725-428A-BB6C-C89308A95487}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F6A28AED-16E1-4F20-AE03-08FC613C9DBD}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{D2B219D1-0BE2-4212-8EFF-E89A8FDAFEDC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{22A96388-3DA3-41D7-8F94-A69A14C5D5D0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{5A345936-D827-4252-B386-002596305625}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{8FFA56F0-D699-46C5-9A04-7578AF81C4B4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E5FD0112-EADA-4279-8992-CC024F59E1BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C9FFED-606F-4C82-8B13-1549AC072796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E008243-18BD-4761-9AC8-95461651E9AD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2536,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63238F7C-0D44-4ADF-844A-C0CFBC56C056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CB3AFA-23D6-4126-85E8-630067847C93}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3790,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0918FF0-544C-426B-8A4E-A98553397031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2CE06-999C-4337-A483-0C554041F98B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5042,7 +5042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707A7A46-5670-47AC-94D9-08E7AE9478F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA765B8-CB2A-4875-8AF7-94252E03482F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6290,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3895B5-82B5-4D34-82DE-32D90313312D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874BE2C9-F68E-46C1-9CC2-E794A1DEE98F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7547,7 +7547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1A1507-56DB-4596-BD24-902FA2113DAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F75969E-378D-4E9B-BBD7-733E6CAD866D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8802,7 +8802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98977764-8FEA-4425-B330-49A80BA989F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50840F14-CD33-4990-B968-88F341945E8B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10055,7 +10055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A555AA88-CAF5-40F2-8162-3F78876145E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DB0718-1DB6-499B-9EC5-7CF21E314FAB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11310,7 +11310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2522E40D-922D-4CF6-82E6-13EA4A4CA745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B89809-34BD-4F0C-B5BD-F3169A88F83D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12563,7 +12563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29F24F2-9CC6-4483-B7FD-50586D901831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E71AAD-2237-415F-84F0-EC0E1EAEB414}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13816,7 +13816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E14F5A6-22B7-4F39-BA0F-DFECD6004AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAF2893-E553-4578-AB9F-8BF653277431}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15069,7 +15069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4535FAB-706D-4289-ADFA-A8DFAFC8F059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94FC7C3-6445-4C96-9A28-F63D5F969D83}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
